--- a/pycahce/book.xlsx
+++ b/pycahce/book.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -611,6 +611,78 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>5ccb306d</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Rating</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2026-01-19 07:35:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>26e4b559</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Rating</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2026-01-19 07:35:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>0b52dfcb</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Rating</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2026-01-19 07:36:02</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
